--- a/data/trans_camb/P2A_psíq_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.4316531142737046</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.763436261573353</v>
+        <v>1.763436261573354</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6172859792153189</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.003066737545587</v>
+        <v>-4.152461911384083</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.674369016051558</v>
+        <v>-3.698529155748499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6471317494522447</v>
+        <v>-0.807357607714309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7961336275332026</v>
+        <v>-0.8556519128286326</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9074538359029447</v>
+        <v>-0.9573365746706157</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3004815500833545</v>
+        <v>0.1170987973466016</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.59783681586592</v>
+        <v>-1.731029301362745</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.557404940747412</v>
+        <v>-1.512108344570124</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3315662967164939</v>
+        <v>0.4431104501273078</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.6110560251170525</v>
+        <v>-0.7351673420111706</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1826869390364851</v>
+        <v>-0.3279384631990406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.439745774577532</v>
+        <v>4.618689457960156</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.693856324266095</v>
+        <v>1.775280252609513</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.692372814172813</v>
+        <v>1.753037856193351</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.244749159993258</v>
+        <v>3.371326563549119</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4302928883826685</v>
+        <v>0.2431302498686557</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4406314791376484</v>
+        <v>0.5100825732558057</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.323824240187638</v>
+        <v>3.168770316556476</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2287368743884904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9344607633245222</v>
+        <v>0.9344607633245225</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2623204394558981</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8614523775059487</v>
+        <v>-0.8588285082787789</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8031114374427131</v>
+        <v>-0.7958242954740335</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2088641461557483</v>
+        <v>-0.247765739067284</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3229647413226121</v>
+        <v>-0.3369075956947145</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3631163630435924</v>
+        <v>-0.3831377383115669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05448822775151939</v>
+        <v>0.02018694065968515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5215159837953885</v>
+        <v>-0.5530504457048407</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4997653919488469</v>
+        <v>-0.4897330898209534</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09685923842661957</v>
+        <v>0.1169503855768615</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2335130091319106</v>
+        <v>-0.3090005388384185</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.03310748744711008</v>
+        <v>-0.06886253141442529</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.111344766401365</v>
+        <v>2.258863067196449</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.342466991099538</v>
+        <v>1.463203470576213</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.355844770717663</v>
+        <v>1.457123983815032</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.357781166643296</v>
+        <v>2.57302452908015</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2802884753653455</v>
+        <v>0.1478705040581876</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.303544445790383</v>
+        <v>0.3173591406745258</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.800080577734018</v>
+        <v>1.777848551168574</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6378004947478536</v>
+        <v>0.6363550811938037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4555036210909778</v>
+        <v>-0.4941807958053048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8522928756839745</v>
+        <v>0.9172847177487262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7064658201309283</v>
+        <v>0.6024820748298856</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1111132787044096</v>
+        <v>0.1250907651787425</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.827972108543521</v>
+        <v>1.974161935205887</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9640463881092229</v>
+        <v>0.825959700736969</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06172179992214694</v>
+        <v>0.003177251875997042</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.664166422169051</v>
+        <v>1.67768833421097</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.871159740580063</v>
+        <v>2.854928276012084</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9563423919846101</v>
+        <v>0.8885482610363808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.145834770356323</v>
+        <v>3.19475779700614</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.816376967839739</v>
+        <v>2.788273744786467</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.895302766126017</v>
+        <v>1.983382832407063</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.145398218639587</v>
+        <v>4.222100899376364</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.399846323115766</v>
+        <v>2.388280078229041</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.264917694099227</v>
+        <v>1.182994342043061</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.321045379410978</v>
+        <v>3.231331730097631</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4706031831049198</v>
+        <v>0.4676221091486614</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6068103737368621</v>
+        <v>-0.5924976021082605</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7389059515447147</v>
+        <v>0.8161801553750063</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5518444557203112</v>
+        <v>0.4826852129965616</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.002114306475594391</v>
+        <v>-0.06612721133493059</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.634690818068482</v>
+        <v>1.655811255469376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.191792294945588</v>
+        <v>0.9801963440100729</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05263636201907369</v>
+        <v>-0.03111173112530741</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2.073796924811138</v>
+        <v>1.842221509585015</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10.28163116284098</v>
+        <v>10.27871303289036</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.043757629026449</v>
+        <v>4.017856906449704</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10.63098661626995</v>
+        <v>11.32270534699425</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9.513390191179495</v>
+        <v>10.58407467427581</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6.019159378325038</v>
+        <v>6.364478338529294</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14.53015771808794</v>
+        <v>14.23393134967723</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.001545796082075</v>
+        <v>7.073791160504305</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.945004794742395</v>
+        <v>3.592242919075697</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9.696633627911849</v>
+        <v>9.808043933085973</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.677725798440039</v>
+        <v>0.5555975590850358</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1466311440399152</v>
+        <v>-0.1054669020197817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5802007240154781</v>
+        <v>0.5062819254818622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9620118374574561</v>
+        <v>-1.00865012878605</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.400266148978186</v>
+        <v>-1.355313033892837</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.05485320099305418</v>
+        <v>-0.06510438372720011</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1069576079811846</v>
+        <v>0.1057137462472113</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.5249565037285504</v>
+        <v>-0.5105840112376335</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6232899812469096</v>
+        <v>0.5817323390404255</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.763575269267733</v>
+        <v>2.831958733461991</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.432470317423243</v>
+        <v>1.519317816344035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.514653565452489</v>
+        <v>2.476722079667677</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.030457187629951</v>
+        <v>1.147189497641915</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6203350758754097</v>
+        <v>0.6690250783043272</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.263587063578715</v>
+        <v>2.215940205994538</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.615967245513718</v>
+        <v>1.542481793726213</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8043350976214709</v>
+        <v>0.7788859159600297</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.00454701368785</v>
+        <v>2.057282644715701</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3313825830883159</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8168730078162642</v>
+        <v>0.8168730078162645</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.9497824805369578</v>
@@ -1197,7 +1197,7 @@
         <v>0.08882080581922597</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.513903674837526</v>
+        <v>1.513903674837527</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.6176895065925808</v>
+        <v>0.4964353955353057</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.462650773165361</v>
+        <v>-0.3263503447014666</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4785174419169974</v>
+        <v>0.5293813356792022</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5721114586809035</v>
+        <v>-0.5863077938737372</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7888067539009624</v>
+        <v>-0.7742325122249509</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08188122440826111</v>
+        <v>-0.09110172806074188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07942889304162679</v>
+        <v>0.0165671927077062</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5351131982798661</v>
+        <v>-0.4781956446644732</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5034055468265618</v>
+        <v>0.4719919777680862</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>14.70473518542474</v>
+        <v>15.95644820490237</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>7.974204766623933</v>
+        <v>8.484703985872324</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>14.59964676016585</v>
+        <v>18.83655657097742</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.318533475016278</v>
+        <v>1.637278873680703</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9668225613527637</v>
+        <v>1.024279406375557</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.059874280233267</v>
+        <v>2.903912496214685</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.843568992999739</v>
+        <v>2.861437798394155</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.438521585876188</v>
+        <v>1.452838549835584</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.756590449809442</v>
+        <v>3.810144728068032</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9096567057964389</v>
+        <v>0.802538899130411</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8837993493603871</v>
+        <v>-0.7006881088151732</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4910291727106124</v>
+        <v>0.5773800868583991</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.220937435497907</v>
+        <v>0.245877651585606</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7485062810775345</v>
+        <v>-0.7135705913035744</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6715657599492703</v>
+        <v>0.584699922440885</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.057716387782776</v>
+        <v>1.071358908418381</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.4085327969051672</v>
+        <v>-0.3589648351300827</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9290143644897929</v>
+        <v>0.8764835927587219</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.45130424607731</v>
+        <v>4.54917104667401</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4111902549413647</v>
+        <v>0.4140297690002631</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.234678022576293</v>
+        <v>2.252503268107204</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.838554339377906</v>
+        <v>4.047875044344622</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.928367019546955</v>
+        <v>1.717755694954936</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.200891596377521</v>
+        <v>3.230456264231058</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.530638651662285</v>
+        <v>3.727851014034364</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9673647748621429</v>
+        <v>0.9815867792083435</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.399666449354014</v>
+        <v>2.358619119879952</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1057282156559805</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>5.883511368059585</v>
+        <v>5.883511368059587</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>3.097013903293974</v>
@@ -1402,7 +1402,7 @@
         <v>0.9337699311668646</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>3.170417234557676</v>
+        <v>3.170417234557677</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>5.336283828161641</v>
@@ -1411,7 +1411,7 @@
         <v>0.7492936470830652</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>4.172523962024342</v>
+        <v>4.172523962024341</v>
       </c>
     </row>
     <row r="26">
@@ -1425,22 +1425,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.3076769818034857</v>
+        <v>-0.3923730582866519</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8318003496516596</v>
+        <v>-0.7976562683618587</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.002767304413715051</v>
+        <v>0.01685593031244885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7557860187557123</v>
+        <v>0.9419162261967826</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6912292295902142</v>
+        <v>-0.642088289935227</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7278974473220493</v>
+        <v>0.6625154595150303</v>
       </c>
     </row>
     <row r="27">
@@ -1457,11 +1457,13 @@
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>26.2633879732904</v>
-      </c>
-      <c r="J27" s="6" t="inlineStr"/>
+        <v>29.0916750711601</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>7.484720183250592</v>
+      </c>
       <c r="K27" s="6" t="n">
-        <v>16.39091663141049</v>
+        <v>17.85348155598444</v>
       </c>
     </row>
     <row r="28">
@@ -1491,7 +1493,7 @@
         <v>0.4650082610133145</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.824470545094532</v>
+        <v>1.824470545094533</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.9061687388298384</v>
@@ -1511,31 +1513,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3098835725589946</v>
+        <v>0.3339362431622392</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4945455907424887</v>
+        <v>-0.4879433205181234</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7420160722787787</v>
+        <v>0.7605974272274058</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2658594887234512</v>
+        <v>0.3047984513023838</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.112971467584975</v>
+        <v>-0.1174648766113585</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.158660237796333</v>
+        <v>1.226616472020527</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4201801410550728</v>
+        <v>0.4750240829843931</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.122894047621687</v>
+        <v>-0.1365376979655935</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.190152795252338</v>
+        <v>1.133743404626602</v>
       </c>
     </row>
     <row r="30">
@@ -1546,31 +1548,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.625056329912671</v>
+        <v>1.541408828648753</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5330731822718515</v>
+        <v>0.4654043379505991</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.082124637124052</v>
+        <v>2.03801666381287</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.556871392512016</v>
+        <v>1.527589886889537</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.061178823488427</v>
+        <v>1.080770904908659</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.388329703768578</v>
+        <v>2.527767473297867</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.317172556120402</v>
+        <v>1.311590014918063</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6545412397750729</v>
+        <v>0.6080705589903218</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.041894938725506</v>
+        <v>2.021515310492906</v>
       </c>
     </row>
     <row r="31">
@@ -1616,31 +1618,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.232437377166013</v>
+        <v>0.2353107655756033</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4242170970298137</v>
+        <v>-0.4332811376515339</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5915830543759818</v>
+        <v>0.5684353999950795</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1613565676953752</v>
+        <v>0.1698454841255418</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08219973120867616</v>
+        <v>-0.08997282850549429</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7845771335909504</v>
+        <v>0.8057123265635359</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3287427505934283</v>
+        <v>0.3940355573030492</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1101664224959249</v>
+        <v>-0.1149617357797912</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.9349950819172022</v>
+        <v>0.9008098388104429</v>
       </c>
     </row>
     <row r="33">
@@ -1651,31 +1653,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.391862653317702</v>
+        <v>2.289100735184319</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7625350250499628</v>
+        <v>0.7019040117543571</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.997746144140902</v>
+        <v>3.117365289615373</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.644029143402659</v>
+        <v>1.718880036826798</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.16276432391002</v>
+        <v>1.259554775514775</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.711571956988275</v>
+        <v>2.875829190276598</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.494138217130582</v>
+        <v>1.545189219901264</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7640737813168338</v>
+        <v>0.6714249845822293</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.255796755727608</v>
+        <v>2.377641580736582</v>
       </c>
     </row>
     <row r="34">
